--- a/data-raw/dados_rj/validacao/escape_marcas.xlsx
+++ b/data-raw/dados_rj/validacao/escape_marcas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,37 +407,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d.p.m.s.</t>
+          <t>anderson manufacturi</t>
         </is>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>anderson manufacturi</t>
+          <t>tac</t>
         </is>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tac</t>
+          <t>h.&amp;.r.</t>
         </is>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>h.&amp;.r.</t>
+          <t>manurhin</t>
         </is>
       </c>
       <c r="C8">
@@ -447,27 +447,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>manurhin</t>
+          <t>mab</t>
         </is>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mab</t>
+          <t>amt</t>
         </is>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>amt</t>
+          <t>dreadnought</t>
         </is>
       </c>
       <c r="C11">
@@ -477,17 +477,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dreadnought</t>
+          <t>armsan</t>
         </is>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>armsan</t>
+          <t>radom</t>
         </is>
       </c>
       <c r="C13">
@@ -497,7 +497,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>radom</t>
+          <t>rohm</t>
         </is>
       </c>
       <c r="C14">
@@ -507,17 +507,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rohm</t>
+          <t>gh</t>
         </is>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gh</t>
+          <t>iver johnson</t>
         </is>
       </c>
       <c r="C16">
@@ -527,7 +527,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>iver johnson</t>
+          <t>jules kaufmann</t>
         </is>
       </c>
       <c r="C17">
@@ -537,7 +537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jules kaufmann</t>
+          <t>magnum</t>
         </is>
       </c>
       <c r="C18">
@@ -547,7 +547,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>magnum</t>
+          <t>zafer</t>
         </is>
       </c>
       <c r="C19">
@@ -557,17 +557,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zafer</t>
+          <t>bryco arms</t>
         </is>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bryco arms</t>
+          <t>fab. caseira</t>
         </is>
       </c>
       <c r="C21">
@@ -577,7 +577,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fab. caseira</t>
+          <t>olimpic</t>
         </is>
       </c>
       <c r="C22">
@@ -587,7 +587,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>olimpic</t>
+          <t>prt industries</t>
         </is>
       </c>
       <c r="C23">
@@ -597,7 +597,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>prt industries</t>
+          <t>savage</t>
         </is>
       </c>
       <c r="C24">
@@ -607,17 +607,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>savage</t>
+          <t>bh</t>
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bh</t>
+          <t>coonan</t>
         </is>
       </c>
       <c r="C26">
@@ -627,7 +627,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cetme</t>
+          <t>franchi</t>
         </is>
       </c>
       <c r="C27">
@@ -637,7 +637,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>coonan</t>
+          <t>geco</t>
         </is>
       </c>
       <c r="C28">
@@ -647,7 +647,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>franchi</t>
+          <t>stevens</t>
         </is>
       </c>
       <c r="C29">
@@ -657,7 +657,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>geco</t>
+          <t>webley &amp; scott</t>
         </is>
       </c>
       <c r="C30">
@@ -667,27 +667,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>stevens</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>webley &amp; scott</t>
+          <t>era</t>
         </is>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>davis</t>
+          <t>f.&amp;.l.</t>
         </is>
       </c>
       <c r="C33">
@@ -697,7 +697,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>fal</t>
         </is>
       </c>
       <c r="C34">
@@ -707,7 +707,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>f.&amp;.l.</t>
+          <t>ithaca</t>
         </is>
       </c>
       <c r="C35">
@@ -717,7 +717,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fal</t>
+          <t>lorcin</t>
         </is>
       </c>
       <c r="C36">
@@ -727,7 +727,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ithaca</t>
+          <t>m.a.c.</t>
         </is>
       </c>
       <c r="C37">
@@ -737,7 +737,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lorcin</t>
+          <t>pehuen</t>
         </is>
       </c>
       <c r="C38">
@@ -747,7 +747,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>m.a.c.</t>
+          <t>retolaza hermanos</t>
         </is>
       </c>
       <c r="C39">
@@ -757,7 +757,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pehuen</t>
+          <t>roland</t>
         </is>
       </c>
       <c r="C40">
@@ -767,7 +767,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>retolaza hermanos</t>
+          <t>rubi</t>
         </is>
       </c>
       <c r="C41">
@@ -777,7 +777,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>roland</t>
+          <t>rugger</t>
         </is>
       </c>
       <c r="C42">
@@ -787,7 +787,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>rubi</t>
+          <t>sporter</t>
         </is>
       </c>
       <c r="C43">
@@ -797,7 +797,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>rugger</t>
+          <t>swd</t>
         </is>
       </c>
       <c r="C44">
@@ -807,27 +807,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sporter</t>
+          <t>aguirre y aranzabal</t>
         </is>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>swd</t>
+          <t>b.f.i.</t>
         </is>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>aguirre y aranzabal</t>
+          <t>bataan</t>
         </is>
       </c>
       <c r="C47">
@@ -837,7 +837,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>b.f.i.</t>
+          <t>defender</t>
         </is>
       </c>
       <c r="C48">
@@ -847,7 +847,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bataan</t>
+          <t>escort magnum</t>
         </is>
       </c>
       <c r="C49">
@@ -857,7 +857,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>defender</t>
+          <t>garate anitua y cia</t>
         </is>
       </c>
       <c r="C50">
@@ -867,7 +867,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>escort magnum</t>
+          <t>lugger</t>
         </is>
       </c>
       <c r="C51">
@@ -877,7 +877,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>garate anitua y cia</t>
+          <t>madsen</t>
         </is>
       </c>
       <c r="C52">
@@ -887,7 +887,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>lugger</t>
+          <t>mahely</t>
         </is>
       </c>
       <c r="C53">
@@ -897,7 +897,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>madsen</t>
+          <t>makarov</t>
         </is>
       </c>
       <c r="C54">
@@ -907,7 +907,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mahely</t>
+          <t>não identificado</t>
         </is>
       </c>
       <c r="C55">
@@ -917,7 +917,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>makarov</t>
+          <t>ojanguren y</t>
         </is>
       </c>
       <c r="C56">
@@ -927,7 +927,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>não identificado</t>
+          <t>para - ordnance</t>
         </is>
       </c>
       <c r="C57">
@@ -937,7 +937,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ojanguren y</t>
+          <t>rhoner</t>
         </is>
       </c>
       <c r="C58">
@@ -947,7 +947,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>para - ordnance</t>
+          <t>rpb</t>
         </is>
       </c>
       <c r="C59">
@@ -957,7 +957,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>rhoner</t>
+          <t>s&amp;amp;w</t>
         </is>
       </c>
       <c r="C60">
@@ -967,7 +967,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>rpb</t>
+          <t>saurio</t>
         </is>
       </c>
       <c r="C61">
@@ -977,7 +977,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>s&amp;amp;w</t>
+          <t>schmeisser</t>
         </is>
       </c>
       <c r="C62">
@@ -987,7 +987,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>saurio</t>
+          <t>sportman</t>
         </is>
       </c>
       <c r="C63">
@@ -997,7 +997,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>schmeisser</t>
+          <t>thieme &amp; edeler</t>
         </is>
       </c>
       <c r="C64">
@@ -1007,30 +1007,10 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sportman</t>
+          <t>tomahawk</t>
         </is>
       </c>
       <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>thieme &amp; edeler</t>
-        </is>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>tomahawk</t>
-        </is>
-      </c>
-      <c r="C67">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/dados_rj/validacao/escape_marcas.xlsx
+++ b/data-raw/dados_rj/validacao/escape_marcas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,77 +437,77 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>manurhin</t>
+          <t>mab</t>
         </is>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mab</t>
+          <t>dreadnought</t>
         </is>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>amt</t>
+          <t>radom</t>
         </is>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dreadnought</t>
+          <t>rohm</t>
         </is>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>armsan</t>
+          <t>gh</t>
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>radom</t>
+          <t>iver johnson</t>
         </is>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rohm</t>
+          <t>jules kaufmann</t>
         </is>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>gh</t>
+          <t>magnum</t>
         </is>
       </c>
       <c r="C15">
@@ -517,7 +517,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>iver johnson</t>
+          <t>zafer</t>
         </is>
       </c>
       <c r="C16">
@@ -527,37 +527,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jules kaufmann</t>
+          <t>bryco arms</t>
         </is>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>magnum</t>
+          <t>fab. caseira</t>
         </is>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zafer</t>
+          <t>olimpic</t>
         </is>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bryco arms</t>
+          <t>prt industries</t>
         </is>
       </c>
       <c r="C20">
@@ -567,47 +567,47 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fab. caseira</t>
+          <t>coonan</t>
         </is>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>olimpic</t>
+          <t>franchi</t>
         </is>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>prt industries</t>
+          <t>geco</t>
         </is>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>savage</t>
+          <t>stevens</t>
         </is>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bh</t>
+          <t>webley &amp; scott</t>
         </is>
       </c>
       <c r="C25">
@@ -617,57 +617,57 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>coonan</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>franchi</t>
+          <t>era</t>
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>geco</t>
+          <t>f.&amp;.l.</t>
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>stevens</t>
+          <t>fal</t>
         </is>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>webley &amp; scott</t>
+          <t>lorcin</t>
         </is>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>davis</t>
+          <t>pehuen</t>
         </is>
       </c>
       <c r="C31">
@@ -677,7 +677,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>retolaza hermanos</t>
         </is>
       </c>
       <c r="C32">
@@ -687,7 +687,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>f.&amp;.l.</t>
+          <t>roland</t>
         </is>
       </c>
       <c r="C33">
@@ -697,7 +697,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>fal</t>
+          <t>rubi</t>
         </is>
       </c>
       <c r="C34">
@@ -707,7 +707,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ithaca</t>
+          <t>sporter</t>
         </is>
       </c>
       <c r="C35">
@@ -717,7 +717,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lorcin</t>
+          <t>swd</t>
         </is>
       </c>
       <c r="C36">
@@ -727,87 +727,87 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>m.a.c.</t>
+          <t>aguirre y aranzabal</t>
         </is>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pehuen</t>
+          <t>b.f.i.</t>
         </is>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>retolaza hermanos</t>
+          <t>bataan</t>
         </is>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>roland</t>
+          <t>defender</t>
         </is>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>rubi</t>
+          <t>escort magnum</t>
         </is>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>rugger</t>
+          <t>garate anitua y cia</t>
         </is>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sporter</t>
+          <t>lugger</t>
         </is>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>swd</t>
+          <t>mahely</t>
         </is>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>aguirre y aranzabal</t>
+          <t>makarov</t>
         </is>
       </c>
       <c r="C45">
@@ -817,7 +817,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b.f.i.</t>
+          <t>não identificado</t>
         </is>
       </c>
       <c r="C46">
@@ -827,7 +827,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bataan</t>
+          <t>ojanguren y</t>
         </is>
       </c>
       <c r="C47">
@@ -837,7 +837,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>defender</t>
+          <t>para - ordnance</t>
         </is>
       </c>
       <c r="C48">
@@ -847,7 +847,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>escort magnum</t>
+          <t>rhoner</t>
         </is>
       </c>
       <c r="C49">
@@ -857,7 +857,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>garate anitua y cia</t>
+          <t>rpb</t>
         </is>
       </c>
       <c r="C50">
@@ -867,7 +867,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lugger</t>
+          <t>s&amp;amp;w</t>
         </is>
       </c>
       <c r="C51">
@@ -877,7 +877,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>madsen</t>
+          <t>saurio</t>
         </is>
       </c>
       <c r="C52">
@@ -887,7 +887,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mahely</t>
+          <t>schmeisser</t>
         </is>
       </c>
       <c r="C53">
@@ -897,7 +897,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>makarov</t>
+          <t>sportman</t>
         </is>
       </c>
       <c r="C54">
@@ -907,7 +907,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>não identificado</t>
+          <t>thieme &amp; edeler</t>
         </is>
       </c>
       <c r="C55">
@@ -917,100 +917,10 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ojanguren y</t>
+          <t>tomahawk</t>
         </is>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>para - ordnance</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>rhoner</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>rpb</t>
-        </is>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>s&amp;amp;w</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>saurio</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>schmeisser</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>sportman</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>thieme &amp; edeler</t>
-        </is>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>tomahawk</t>
-        </is>
-      </c>
-      <c r="C65">
         <v>1</v>
       </c>
     </row>
